--- a/bikes.xlsx
+++ b/bikes.xlsx
@@ -1,21 +1,373 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eddie Cheteni\Documents\BusinessScienceHub\QuickLearn in R\web-apps-with-shiny\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17964" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="114">
+  <si>
+    <t>bike.id</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Supersix Evo Black Inc.</t>
+  </si>
+  <si>
+    <t>Road - Elite Road - Carbon</t>
+  </si>
+  <si>
+    <t>Supersix Evo Hi-Mod Team</t>
+  </si>
+  <si>
+    <t>Supersix Evo Hi-Mod Dura Ace 1</t>
+  </si>
+  <si>
+    <t>Supersix Evo Hi-Mod Dura Ace 2</t>
+  </si>
+  <si>
+    <t>Supersix Evo Hi-Mod Utegra</t>
+  </si>
+  <si>
+    <t>Supersix Evo Red</t>
+  </si>
+  <si>
+    <t>Supersix Evo Ultegra 3</t>
+  </si>
+  <si>
+    <t>Supersix Evo Ultegra 4</t>
+  </si>
+  <si>
+    <t>Supersix Evo 105</t>
+  </si>
+  <si>
+    <t>Supersix Evo Tiagra</t>
+  </si>
+  <si>
+    <t>CAAD12 Black Inc</t>
+  </si>
+  <si>
+    <t>Road - Elite Road - Aluminum</t>
+  </si>
+  <si>
+    <t>CAAD12 Disc Dura Ace</t>
+  </si>
+  <si>
+    <t>CAAD12 Red</t>
+  </si>
+  <si>
+    <t>CAAD Disc Ultegra</t>
+  </si>
+  <si>
+    <t>CAAD12 Ultegra</t>
+  </si>
+  <si>
+    <t>CAAD12 Disc 105</t>
+  </si>
+  <si>
+    <t>CAAD12 105</t>
+  </si>
+  <si>
+    <t>CAAD8 105</t>
+  </si>
+  <si>
+    <t>CAAD8 Tiagra</t>
+  </si>
+  <si>
+    <t>CAAD8 Sora</t>
+  </si>
+  <si>
+    <t>CAAD8 Claris</t>
+  </si>
+  <si>
+    <t>Synapse Hi-Mod Disc Black Inc.</t>
+  </si>
+  <si>
+    <t>Road - Endurance Road - Carbon</t>
+  </si>
+  <si>
+    <t>Synapse Hi-Mod Disc Red</t>
+  </si>
+  <si>
+    <t>Synapse Hi-Mod Dura Ace</t>
+  </si>
+  <si>
+    <t>Synapse Hi-Mod Disc Ultegra</t>
+  </si>
+  <si>
+    <t>Synapse Carbon Disc Ultegra D12</t>
+  </si>
+  <si>
+    <t>Synapse Carbon Disc Ultegra</t>
+  </si>
+  <si>
+    <t>Synapse Carbon Ultegra 3</t>
+  </si>
+  <si>
+    <t>Synapse Carbon Ultegra 4</t>
+  </si>
+  <si>
+    <t>Synapse Carbon Disc 105</t>
+  </si>
+  <si>
+    <t>Synapse Carbon 105</t>
+  </si>
+  <si>
+    <t>Syapse Carbon Tiagra</t>
+  </si>
+  <si>
+    <t>Synapse Disc Adventure</t>
+  </si>
+  <si>
+    <t>Road - Endurance Road - Aluminum</t>
+  </si>
+  <si>
+    <t>Synapse Disc 105</t>
+  </si>
+  <si>
+    <t>Synapse Disc Tiagra</t>
+  </si>
+  <si>
+    <t>Synapse Sora</t>
+  </si>
+  <si>
+    <t>Synapse Claris</t>
+  </si>
+  <si>
+    <t>Slice Hi-Mod Black Inc.</t>
+  </si>
+  <si>
+    <t>Road - Triathalon - Carbon</t>
+  </si>
+  <si>
+    <t>Slice Hi-Mod Dura Ace D12</t>
+  </si>
+  <si>
+    <t>Slice Ultegra D12</t>
+  </si>
+  <si>
+    <t>Slice Ultegra</t>
+  </si>
+  <si>
+    <t>Slice 105</t>
+  </si>
+  <si>
+    <t>SuperX Hi-Mod CX1</t>
+  </si>
+  <si>
+    <t>Road - Cyclocross - Carbon</t>
+  </si>
+  <si>
+    <t>SuperX Ultegra</t>
+  </si>
+  <si>
+    <t>SuperX 105</t>
+  </si>
+  <si>
+    <t>SuperX Rival CX1</t>
+  </si>
+  <si>
+    <t>Jekyll Carbon 1</t>
+  </si>
+  <si>
+    <t>Mountain - Over Mountain - Carbon</t>
+  </si>
+  <si>
+    <t>Jekyll Carbon 2</t>
+  </si>
+  <si>
+    <t>Jekyll Carbon 3</t>
+  </si>
+  <si>
+    <t>Jekyll Carbon 4</t>
+  </si>
+  <si>
+    <t>Trigger Carbon 1</t>
+  </si>
+  <si>
+    <t>Trigger Carbon 2</t>
+  </si>
+  <si>
+    <t>Trigger Carbon 3</t>
+  </si>
+  <si>
+    <t>Trigger Carbon 4</t>
+  </si>
+  <si>
+    <t>Scalpel-Si Black Inc.</t>
+  </si>
+  <si>
+    <t>Mountain - Cross Country Race - Carbon</t>
+  </si>
+  <si>
+    <t>Scalpel-Si Race</t>
+  </si>
+  <si>
+    <t>Scalpel-Si Hi-Mod 1</t>
+  </si>
+  <si>
+    <t>Scalpel-Si Carbon 2</t>
+  </si>
+  <si>
+    <t>Scalpel-Si Carbon 3</t>
+  </si>
+  <si>
+    <t>Scalpel-Si Carbon 4</t>
+  </si>
+  <si>
+    <t>Scalpel-Si 5</t>
+  </si>
+  <si>
+    <t>Mountain - Cross Country Race - Aluminum</t>
+  </si>
+  <si>
+    <t>Scalpel 29 Carbon Race</t>
+  </si>
+  <si>
+    <t>Scalpel 29 Carbon 2</t>
+  </si>
+  <si>
+    <t>Scalpel 29 Carbon 3</t>
+  </si>
+  <si>
+    <t>Scalpel 29 4</t>
+  </si>
+  <si>
+    <t>F-Si Black Inc.</t>
+  </si>
+  <si>
+    <t>F-Si Hi-Mod Team</t>
+  </si>
+  <si>
+    <t>F-Si Hi-Mod 1</t>
+  </si>
+  <si>
+    <t>F-Si Carbon 2</t>
+  </si>
+  <si>
+    <t>F-Si Carbon 4</t>
+  </si>
+  <si>
+    <t>F-Si 1</t>
+  </si>
+  <si>
+    <t>F-Si 2</t>
+  </si>
+  <si>
+    <t>F-Si 3</t>
+  </si>
+  <si>
+    <t>Fat CAAD1</t>
+  </si>
+  <si>
+    <t>Mountain - Fat Bike - Aluminum</t>
+  </si>
+  <si>
+    <t>Fat CAAD2</t>
+  </si>
+  <si>
+    <t>Beast of the East 1</t>
+  </si>
+  <si>
+    <t>Mountain - Trail - Aluminum</t>
+  </si>
+  <si>
+    <t>Beast of the East 2</t>
+  </si>
+  <si>
+    <t>Beast of the East 3</t>
+  </si>
+  <si>
+    <t>Bad Habit 1</t>
+  </si>
+  <si>
+    <t>Bad Habit 2</t>
+  </si>
+  <si>
+    <t>Habit Hi-Mod Black Inc.</t>
+  </si>
+  <si>
+    <t>Mountain - Trail - Carbon</t>
+  </si>
+  <si>
+    <t>Habit Carbon 1</t>
+  </si>
+  <si>
+    <t>Habit Carbon 2</t>
+  </si>
+  <si>
+    <t>Habit Carbon SE</t>
+  </si>
+  <si>
+    <t>Habit Carbon 3</t>
+  </si>
+  <si>
+    <t>Habit 4</t>
+  </si>
+  <si>
+    <t>Habit 5</t>
+  </si>
+  <si>
+    <t>Habit 6</t>
+  </si>
+  <si>
+    <t>Trail 1</t>
+  </si>
+  <si>
+    <t>Mountain - Sport - Aluminum</t>
+  </si>
+  <si>
+    <t>Trail 2</t>
+  </si>
+  <si>
+    <t>Trail 3</t>
+  </si>
+  <si>
+    <t>Trail 4</t>
+  </si>
+  <si>
+    <t>Trail 5</t>
+  </si>
+  <si>
+    <t>Catalyst 1</t>
+  </si>
+  <si>
+    <t>Catalyst 2</t>
+  </si>
+  <si>
+    <t>Catalyst 3</t>
+  </si>
+  <si>
+    <t>Catalyst 4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +415,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +501,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +536,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,1776 +712,1382 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>bike.id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Supersix Evo Black Inc.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Carbon</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2">
         <v>12790</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Supersix Evo Hi-Mod Team</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Carbon</t>
-        </is>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
       <c r="D3">
         <v>10660</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Supersix Evo Hi-Mod Dura Ace 1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Carbon</t>
-        </is>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
       <c r="D4">
         <v>7990</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Supersix Evo Hi-Mod Dura Ace 2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Carbon</t>
-        </is>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
       <c r="D5">
         <v>5330</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Supersix Evo Hi-Mod Utegra</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Carbon</t>
-        </is>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
       <c r="D6">
         <v>4260</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Supersix Evo Red</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Carbon</t>
-        </is>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
       </c>
       <c r="D7">
         <v>3940</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Supersix Evo Ultegra 3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Carbon</t>
-        </is>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
       </c>
       <c r="D8">
         <v>3200</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Supersix Evo Ultegra 4</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Carbon</t>
-        </is>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
       </c>
       <c r="D9">
         <v>2660</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Supersix Evo 105</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Carbon</t>
-        </is>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
       </c>
       <c r="D10">
         <v>2240</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Supersix Evo Tiagra</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Carbon</t>
-        </is>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
       </c>
       <c r="D11">
         <v>1840</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CAAD12 Black Inc</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Aluminum</t>
-        </is>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
       </c>
       <c r="D12">
         <v>5860</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CAAD12 Disc Dura Ace</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Aluminum</t>
-        </is>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
       </c>
       <c r="D13">
         <v>4260</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CAAD12 Red</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Aluminum</t>
-        </is>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
       </c>
       <c r="D14">
         <v>3200</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CAAD Disc Ultegra</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Aluminum</t>
-        </is>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
       </c>
       <c r="D15">
         <v>2660</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CAAD12 Ultegra</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Aluminum</t>
-        </is>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
       </c>
       <c r="D16">
         <v>2240</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CAAD12 Disc 105</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Aluminum</t>
-        </is>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
       </c>
       <c r="D17">
         <v>1950</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CAAD12 105</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Aluminum</t>
-        </is>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
       </c>
       <c r="D18">
         <v>1680</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CAAD8 105</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Aluminum</t>
-        </is>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
       </c>
       <c r="D19">
         <v>1410</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CAAD8 Tiagra</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Aluminum</t>
-        </is>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
       </c>
       <c r="D20">
         <v>1250</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CAAD8 Sora</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Aluminum</t>
-        </is>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
       </c>
       <c r="D21">
         <v>1030</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CAAD8 Claris</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Road - Elite Road - Aluminum</t>
-        </is>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
       </c>
       <c r="D22">
         <v>815</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Synapse Hi-Mod Disc Black Inc.</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Road - Endurance Road - Carbon</t>
-        </is>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
       </c>
       <c r="D23">
         <v>9590</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Synapse Hi-Mod Disc Red</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Road - Endurance Road - Carbon</t>
-        </is>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
       </c>
       <c r="D24">
         <v>7460</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Synapse Hi-Mod Dura Ace</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Road - Endurance Road - Carbon</t>
-        </is>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
       </c>
       <c r="D25">
         <v>5860</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Synapse Hi-Mod Disc Ultegra</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Road - Endurance Road - Carbon</t>
-        </is>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
       </c>
       <c r="D26">
         <v>5330</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Synapse Carbon Disc Ultegra D12</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Road - Endurance Road - Carbon</t>
-        </is>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
       </c>
       <c r="D27">
         <v>4800</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Synapse Carbon Disc Ultegra</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Road - Endurance Road - Carbon</t>
-        </is>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
       </c>
       <c r="D28">
         <v>3730</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Synapse Carbon Ultegra 3</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Road - Endurance Road - Carbon</t>
-        </is>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
       </c>
       <c r="D29">
         <v>3200</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Synapse Carbon Ultegra 4</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Road - Endurance Road - Carbon</t>
-        </is>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
       </c>
       <c r="D30">
         <v>2660</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Synapse Carbon Disc 105</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Road - Endurance Road - Carbon</t>
-        </is>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
       </c>
       <c r="D31">
         <v>2660</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Synapse Carbon 105</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Road - Endurance Road - Carbon</t>
-        </is>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
       </c>
       <c r="D32">
         <v>2240</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Syapse Carbon Tiagra</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Road - Endurance Road - Carbon</t>
-        </is>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
       </c>
       <c r="D33">
         <v>1840</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Synapse Disc Adventure</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Road - Endurance Road - Aluminum</t>
-        </is>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
       </c>
       <c r="D34">
         <v>2130</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Synapse Disc 105</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Road - Endurance Road - Aluminum</t>
-        </is>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
       </c>
       <c r="D35">
         <v>1570</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Synapse Disc Tiagra</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Road - Endurance Road - Aluminum</t>
-        </is>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
       </c>
       <c r="D36">
         <v>1250</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Synapse Sora</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Road - Endurance Road - Aluminum</t>
-        </is>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
       </c>
       <c r="D37">
         <v>1030</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Synapse Claris</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Road - Endurance Road - Aluminum</t>
-        </is>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
       </c>
       <c r="D38">
         <v>870</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Slice Hi-Mod Black Inc.</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Road - Triathalon - Carbon</t>
-        </is>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
       </c>
       <c r="D39">
         <v>7000</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Slice Hi-Mod Dura Ace D12</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Road - Triathalon - Carbon</t>
-        </is>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
       </c>
       <c r="D40">
         <v>4500</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Slice Ultegra D12</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Road - Triathalon - Carbon</t>
-        </is>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
       </c>
       <c r="D41">
         <v>3200</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Slice Ultegra</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Road - Triathalon - Carbon</t>
-        </is>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
       </c>
       <c r="D42">
         <v>2700</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Slice 105</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Road - Triathalon - Carbon</t>
-        </is>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
       </c>
       <c r="D43">
         <v>1950</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>SuperX Hi-Mod CX1</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Road - Cyclocross - Carbon</t>
-        </is>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
       </c>
       <c r="D44">
         <v>3500</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>SuperX Ultegra</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Road - Cyclocross - Carbon</t>
-        </is>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
       </c>
       <c r="D45">
         <v>2450</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>SuperX 105</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Road - Cyclocross - Carbon</t>
-        </is>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
       </c>
       <c r="D46">
         <v>1960</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>SuperX Rival CX1</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Road - Cyclocross - Carbon</t>
-        </is>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
       </c>
       <c r="D47">
         <v>1750</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Jekyll Carbon 1</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Mountain - Over Mountain - Carbon</t>
-        </is>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
       </c>
       <c r="D48">
         <v>7990</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Jekyll Carbon 2</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Mountain - Over Mountain - Carbon</t>
-        </is>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
       </c>
       <c r="D49">
         <v>6070</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Jekyll Carbon 3</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Mountain - Over Mountain - Carbon</t>
-        </is>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
       </c>
       <c r="D50">
         <v>3840</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Jekyll Carbon 4</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Mountain - Over Mountain - Carbon</t>
-        </is>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
       </c>
       <c r="D51">
         <v>3200</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Trigger Carbon 1</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Mountain - Over Mountain - Carbon</t>
-        </is>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
+        <v>57</v>
       </c>
       <c r="D52">
         <v>8200</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Trigger Carbon 2</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Mountain - Over Mountain - Carbon</t>
-        </is>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
       </c>
       <c r="D53">
         <v>5970</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Trigger Carbon 3</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Mountain - Over Mountain - Carbon</t>
-        </is>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
       </c>
       <c r="D54">
         <v>3730</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Trigger Carbon 4</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Mountain - Over Mountain - Carbon</t>
-        </is>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
       </c>
       <c r="D55">
         <v>3200</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Scalpel-Si Black Inc.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Carbon</t>
-        </is>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
       </c>
       <c r="D56">
         <v>12790</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Scalpel-Si Race</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Carbon</t>
-        </is>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
       </c>
       <c r="D57">
         <v>9060</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Scalpel-Si Hi-Mod 1</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Carbon</t>
-        </is>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>66</v>
       </c>
       <c r="D58">
         <v>7460</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Scalpel-Si Carbon 2</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Carbon</t>
-        </is>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
       </c>
       <c r="D59">
         <v>6390</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Scalpel-Si Carbon 3</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Carbon</t>
-        </is>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
       </c>
       <c r="D60">
         <v>5330</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Scalpel-Si Carbon 4</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Carbon</t>
-        </is>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
       </c>
       <c r="D61">
         <v>4260</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Scalpel-Si 5</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Aluminum</t>
-        </is>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>73</v>
       </c>
       <c r="D62">
         <v>3200</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Scalpel 29 Carbon Race</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Carbon</t>
-        </is>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
       </c>
       <c r="D63">
         <v>6390</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Scalpel 29 Carbon 2</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Carbon</t>
-        </is>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
       </c>
       <c r="D64">
         <v>5330</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Scalpel 29 Carbon 3</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Carbon</t>
-        </is>
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
       </c>
       <c r="D65">
         <v>4260</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Scalpel 29 4</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Aluminum</t>
-        </is>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
       </c>
       <c r="D66">
         <v>3200</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>F-Si Black Inc.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Carbon</t>
-        </is>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
       </c>
       <c r="D67">
         <v>11190</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>F-Si Hi-Mod Team</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Carbon</t>
-        </is>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
       </c>
       <c r="D68">
         <v>9060</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>F-Si Hi-Mod 1</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Carbon</t>
-        </is>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
+        <v>66</v>
       </c>
       <c r="D69">
         <v>6390</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>F-Si Carbon 2</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Carbon</t>
-        </is>
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" t="s">
+        <v>66</v>
       </c>
       <c r="D70">
         <v>4800</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>F-Si Carbon 4</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Carbon</t>
-        </is>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" t="s">
+        <v>66</v>
       </c>
       <c r="D71">
         <v>2880</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>F-Si 1</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Aluminum</t>
-        </is>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" t="s">
+        <v>73</v>
       </c>
       <c r="D72">
         <v>2340</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>F-Si 2</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Aluminum</t>
-        </is>
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
+        <v>73</v>
       </c>
       <c r="D73">
         <v>2060</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>F-Si 3</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Mountain - Cross Country Race - Aluminum</t>
-        </is>
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" t="s">
+        <v>73</v>
       </c>
       <c r="D74">
         <v>1840</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Fat CAAD1</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Mountain - Fat Bike - Aluminum</t>
-        </is>
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" t="s">
+        <v>87</v>
       </c>
       <c r="D75">
         <v>3730</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Fat CAAD2</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Mountain - Fat Bike - Aluminum</t>
-        </is>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
       </c>
       <c r="D76">
         <v>2130</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Beast of the East 1</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Mountain - Trail - Aluminum</t>
-        </is>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
       </c>
       <c r="D77">
         <v>2770</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Beast of the East 2</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Mountain - Trail - Aluminum</t>
-        </is>
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" t="s">
+        <v>90</v>
       </c>
       <c r="D78">
         <v>2130</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Beast of the East 3</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Mountain - Trail - Aluminum</t>
-        </is>
+      <c r="B79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
       </c>
       <c r="D79">
         <v>1620</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Bad Habit 1</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Mountain - Trail - Aluminum</t>
-        </is>
+      <c r="B80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" t="s">
+        <v>90</v>
       </c>
       <c r="D80">
         <v>3200</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Bad Habit 2</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Mountain - Trail - Aluminum</t>
-        </is>
+      <c r="B81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
       </c>
       <c r="D81">
         <v>2660</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Habit Hi-Mod Black Inc.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Mountain - Trail - Carbon</t>
-        </is>
+      <c r="B82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" t="s">
+        <v>96</v>
       </c>
       <c r="D82">
         <v>12250</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Habit Carbon 1</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Mountain - Trail - Carbon</t>
-        </is>
+      <c r="B83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" t="s">
+        <v>96</v>
       </c>
       <c r="D83">
         <v>7460</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Habit Carbon 2</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Mountain - Trail - Carbon</t>
-        </is>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" t="s">
+        <v>96</v>
       </c>
       <c r="D84">
         <v>5330</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Habit Carbon SE</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Mountain - Trail - Carbon</t>
-        </is>
+      <c r="B85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" t="s">
+        <v>96</v>
       </c>
       <c r="D85">
         <v>4480</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Habit Carbon 3</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Mountain - Trail - Carbon</t>
-        </is>
+      <c r="B86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" t="s">
+        <v>96</v>
       </c>
       <c r="D86">
         <v>3730</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Habit 4</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Mountain - Trail - Aluminum</t>
-        </is>
+      <c r="B87" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" t="s">
+        <v>90</v>
       </c>
       <c r="D87">
         <v>2880</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Habit 5</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Mountain - Trail - Aluminum</t>
-        </is>
+      <c r="B88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" t="s">
+        <v>90</v>
       </c>
       <c r="D88">
         <v>2340</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Habit 6</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Mountain - Trail - Aluminum</t>
-        </is>
+      <c r="B89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" t="s">
+        <v>90</v>
       </c>
       <c r="D89">
         <v>1950</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Trail 1</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Mountain - Sport - Aluminum</t>
-        </is>
+      <c r="B90" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90" t="s">
+        <v>105</v>
       </c>
       <c r="D90">
         <v>1520</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Trail 2</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Mountain - Sport - Aluminum</t>
-        </is>
+      <c r="B91" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" t="s">
+        <v>105</v>
       </c>
       <c r="D91">
         <v>1350</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Trail 3</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Mountain - Sport - Aluminum</t>
-        </is>
+      <c r="B92" t="s">
+        <v>107</v>
+      </c>
+      <c r="C92" t="s">
+        <v>105</v>
       </c>
       <c r="D92">
         <v>1080</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Trail 4</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Mountain - Sport - Aluminum</t>
-        </is>
+      <c r="B93" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" t="s">
+        <v>105</v>
       </c>
       <c r="D93">
         <v>980</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Trail 5</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Mountain - Sport - Aluminum</t>
-        </is>
+      <c r="B94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" t="s">
+        <v>105</v>
       </c>
       <c r="D94">
         <v>815</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Catalyst 1</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Mountain - Sport - Aluminum</t>
-        </is>
+      <c r="B95" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" t="s">
+        <v>105</v>
       </c>
       <c r="D95">
         <v>705</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Catalyst 2</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Mountain - Sport - Aluminum</t>
-        </is>
+      <c r="B96" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" t="s">
+        <v>105</v>
       </c>
       <c r="D96">
         <v>585</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Catalyst 3</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Mountain - Sport - Aluminum</t>
-        </is>
+      <c r="B97" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" t="s">
+        <v>105</v>
       </c>
       <c r="D97">
         <v>480</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Catalyst 4</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Mountain - Sport - Aluminum</t>
-        </is>
+      <c r="B98" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" t="s">
+        <v>105</v>
       </c>
       <c r="D98">
         <v>415</v>
